--- a/output/part3/3. ff5_result.xlsx
+++ b/output/part3/3. ff5_result.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.752925478334145e-05</v>
+        <v>0.001086324224821214</v>
       </c>
       <c r="C2" t="n">
-        <v>5.501321932074177e-05</v>
+        <v>0.001275280113514041</v>
       </c>
       <c r="D2" t="n">
-        <v>1.227509598913451</v>
+        <v>0.8518318550642511</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2206770300066538</v>
+        <v>0.3950765597564766</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001956841284944521</v>
+        <v>0.000463681924556607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001311050539200761</v>
+        <v>0.001275050870386786</v>
       </c>
       <c r="D3" t="n">
-        <v>1.492575020134193</v>
+        <v>0.3636575883564154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.136690646265308</v>
+        <v>0.7164036669019611</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-9.360449094193853e-05</v>
+        <v>-0.000155878237812751</v>
       </c>
       <c r="C4" t="n">
-        <v>8.51751429222617e-05</v>
+        <v>0.001119817528284788</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.09896488259926</v>
+        <v>-0.1391996766218759</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2727410862712183</v>
+        <v>0.8893980922424232</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.046406182531086e-05</v>
+        <v>0.0005343960554396486</v>
       </c>
       <c r="C5" t="n">
-        <v>5.973422635681857e-05</v>
+        <v>0.0007848625083971454</v>
       </c>
       <c r="D5" t="n">
-        <v>1.179626256551785</v>
+        <v>0.6808785611775467</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2391646794505067</v>
+        <v>0.4965428339517514</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.00022443738354559</v>
+        <v>-0.001736783861648806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002022065241884928</v>
+        <v>0.001305960860407422</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.109941355484525</v>
+        <v>-1.329889673038883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2679904019131559</v>
+        <v>0.1846981336698971</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001023161498550045</v>
+        <v>0.001668857080796723</v>
       </c>
       <c r="C7" t="n">
-        <v>7.529012316660767e-05</v>
+        <v>0.00123283439478287</v>
       </c>
       <c r="D7" t="n">
-        <v>1.358958460309482</v>
+        <v>1.353674984944468</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1752692122736367</v>
+        <v>0.1769935052217702</v>
       </c>
     </row>
   </sheetData>

--- a/output/part3/3. ff5_result.xlsx
+++ b/output/part3/3. ff5_result.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001086324224821214</v>
+        <v>0.0002730211939787824</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001275280113514041</v>
+        <v>0.001243300632456041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8518318550642511</v>
+        <v>0.2195938672044677</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3950765597564766</v>
+        <v>0.8263497867647028</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000463681924556607</v>
+        <v>-7.702279617802663e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001275050870386786</v>
+        <v>0.001251994143163808</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636575883564154</v>
+        <v>-0.06152009304403683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7164036669019611</v>
+        <v>0.9509895382554829</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.000155878237812751</v>
+        <v>0.0003447635512351504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001119817528284788</v>
+        <v>0.001074808382262756</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1391996766218759</v>
+        <v>0.3207674567157096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8893980922424232</v>
+        <v>0.7486293608534236</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0005343960554396486</v>
+        <v>0.0006017081251612574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007848625083971454</v>
+        <v>0.000807117314827954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6808785611775467</v>
+        <v>0.7455026848104704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4965428339517514</v>
+        <v>0.4566022962791847</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001736783861648806</v>
+        <v>-0.0003424908890797923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001305960860407422</v>
+        <v>0.001245504180157053</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.329889673038883</v>
+        <v>-0.2749817259036461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1846981336698971</v>
+        <v>0.7835360104312554</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001668857080796723</v>
+        <v>0.0003058194888792583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00123283439478287</v>
+        <v>0.001094430675885564</v>
       </c>
       <c r="D7" t="n">
-        <v>1.353674984944468</v>
+        <v>0.279432489985538</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1769935052217702</v>
+        <v>0.7801222237441058</v>
       </c>
     </row>
   </sheetData>
